--- a/Bradley-Terry Spreadsheet JSON NCBCA.xlsx
+++ b/Bradley-Terry Spreadsheet JSON NCBCA.xlsx
@@ -866,7 +866,7 @@
   <dimension ref="A1:D1796"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26031,7 +26031,7 @@
   <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
